--- a/CalMultiRDMA/insert.xlsx
+++ b/CalMultiRDMA/insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minxinhao/c++/CalPlot/CalMultiRDMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88740AC0-0FEE-D24B-893E-FA7C3F14720E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F99AEC-EAAF-0B4F-A5F0-B5620AF123A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="4640" windowWidth="27840" windowHeight="16940" xr2:uid="{97B99018-5E40-364C-AB28-CF4E99C00A09}"/>
+    <workbookView xWindow="10560" yWindow="4640" windowWidth="27840" windowHeight="16940" xr2:uid="{97B99018-5E40-364C-AB28-CF4E99C00A09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -438,61 +438,61 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>6952.8399999999901</v>
+        <v>11726.28</v>
       </c>
       <c r="C2">
-        <v>8551.39</v>
+        <v>13030.02</v>
       </c>
       <c r="D2">
-        <v>12072.48</v>
+        <v>12822.68</v>
       </c>
       <c r="E2">
-        <v>10968.84</v>
+        <v>9203.73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3">
-        <v>4170.0200000000004</v>
+        <v>16094.38</v>
       </c>
       <c r="C3">
-        <v>9628.53999999999</v>
+        <v>15306.59</v>
       </c>
       <c r="D3">
-        <v>6547.5199999999904</v>
+        <v>14493.34</v>
       </c>
       <c r="E3">
-        <v>10356.86</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4">
-        <v>4163.6000000000004</v>
+        <v>16932.03</v>
       </c>
       <c r="C4">
-        <v>6258.75</v>
+        <v>14858.87</v>
       </c>
       <c r="D4">
-        <v>9533.89</v>
+        <v>13696.85</v>
       </c>
       <c r="E4">
-        <v>8858.84</v>
+        <v>8586.5400000000009</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5">
-        <v>4481.96</v>
+        <v>14355.41</v>
       </c>
       <c r="C5">
-        <v>6477.18</v>
+        <v>15445.73</v>
       </c>
       <c r="D5">
-        <v>7573.25</v>
+        <v>13701.74</v>
       </c>
       <c r="E5">
-        <v>8058.75</v>
+        <v>8794.2199999999993</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -556,120 +556,120 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>11726.28</v>
+        <v>1879.0899999999899</v>
       </c>
       <c r="C10">
-        <v>13030.02</v>
+        <v>1983.34</v>
       </c>
       <c r="D10">
-        <v>12822.68</v>
+        <v>2423.7999999999902</v>
       </c>
       <c r="E10">
-        <v>9203.73</v>
+        <v>1960.59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11">
-        <v>16094.38</v>
+        <v>1752.1599999999901</v>
       </c>
       <c r="C11">
-        <v>15306.59</v>
+        <v>1783.34</v>
       </c>
       <c r="D11">
-        <v>14493.34</v>
+        <v>1511</v>
       </c>
       <c r="E11">
-        <v>8885</v>
+        <v>929.69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12">
-        <v>16932.03</v>
+        <v>1534.46</v>
       </c>
       <c r="C12">
-        <v>14858.87</v>
+        <v>1657.15</v>
       </c>
       <c r="D12">
-        <v>13696.85</v>
+        <v>1216.5</v>
       </c>
       <c r="E12">
-        <v>8586.5400000000009</v>
+        <v>761.88</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13">
-        <v>14355.41</v>
+        <v>1534.46</v>
       </c>
       <c r="C13">
-        <v>15445.73</v>
+        <v>1489.96</v>
       </c>
       <c r="D13">
-        <v>13701.74</v>
+        <v>1137.8499999999999</v>
       </c>
       <c r="E13">
-        <v>8794.2199999999993</v>
+        <v>656.89</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>2800.19</v>
+        <v>6952.8399999999901</v>
       </c>
       <c r="C14">
-        <v>2614.0700000000002</v>
+        <v>8551.39</v>
       </c>
       <c r="D14">
-        <v>2423.7999999999902</v>
+        <v>12072.48</v>
       </c>
       <c r="E14">
-        <v>1960.59</v>
+        <v>10968.84</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15">
-        <v>1879.0899999999899</v>
+        <v>4170.0200000000004</v>
       </c>
       <c r="C15">
-        <v>1783.34</v>
+        <v>9628.53999999999</v>
       </c>
       <c r="D15">
-        <v>1511</v>
+        <v>6547.5199999999904</v>
       </c>
       <c r="E15">
-        <v>929.69</v>
+        <v>10356.86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16">
-        <v>1752.1599999999901</v>
+        <v>4163.6000000000004</v>
       </c>
       <c r="C16">
-        <v>1657.15</v>
+        <v>6258.75</v>
       </c>
       <c r="D16">
-        <v>1216.5</v>
+        <v>9533.89</v>
       </c>
       <c r="E16">
-        <v>761.88</v>
+        <v>8858.84</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17">
-        <v>1534.46</v>
+        <v>4481.96</v>
       </c>
       <c r="C17">
-        <v>1489.96</v>
+        <v>6477.18</v>
       </c>
       <c r="D17">
-        <v>1137.8499999999999</v>
+        <v>7573.25</v>
       </c>
       <c r="E17">
-        <v>656.89</v>
+        <v>8058.75</v>
       </c>
     </row>
   </sheetData>
